--- a/docs/process/Sprint.xlsx
+++ b/docs/process/Sprint.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PPS-23-Uno\docs\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3DED8-1B78-4944-A237-94F9F2B7C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40DC7E-EC64-4AA9-86C1-48865D86C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{08601CAE-010A-41E7-85E3-BFCB77CDBD56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{08601CAE-010A-41E7-85E3-BFCB77CDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t xml:space="preserve">Remaining effort at the end of the day ... </t>
   </si>
@@ -126,12 +127,6 @@
     <t>Tutorial</t>
   </si>
   <si>
-    <t>Pagina achievment</t>
-  </si>
-  <si>
-    <t>Pagina opzioni</t>
-  </si>
-  <si>
     <t>Bot</t>
   </si>
   <si>
@@ -148,6 +143,27 @@
   </si>
   <si>
     <t>Game</t>
+  </si>
+  <si>
+    <t>Addons Gui principale</t>
+  </si>
+  <si>
+    <t>Gui achievement</t>
+  </si>
+  <si>
+    <t>Gui opzioni</t>
+  </si>
+  <si>
+    <t>Gui cambio colore</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Gui and settings controller</t>
+  </si>
+  <si>
+    <t>Pablo, Samuele</t>
   </si>
 </sst>
 </file>
@@ -366,69 +382,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,365 +808,365 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" ref="G3:L3" si="0">F3+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>2</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1146,296 +1182,514 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0A52DC-FAC9-4E5A-9790-19138E8BFEFC}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" ref="G3:L3" si="0">F3+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3189F7BD-E4DC-46DD-A939-B95B9E63A023}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:L3" si="0">F3+1</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="13">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13">
-        <v>6</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
